--- a/KintoBackup/【勤務表】リュウシュンサン_202201.xlsx
+++ b/KintoBackup/【勤務表】リュウシュンサン_202201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/Sam/TechnologyStack/KintoBackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED028C9E-6448-F843-BEDD-72BFD1049F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586EA38-38BB-CE48-8B02-F17EF5529EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出勤簿 " sheetId="3" r:id="rId1"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="64">
   <si>
     <t>提出日：</t>
     <rPh sb="0" eb="2">
@@ -1620,6 +1620,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="183" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1650,9 +1682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1665,34 +1694,32 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1713,37 +1740,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="S18" sqref="S18:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16"/>
@@ -2135,13 +2135,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="60">
-        <v>44562</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="A1" s="69">
+        <v>44593</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="1"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
@@ -2155,14 +2155,14 @@
       <c r="P1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="61">
-        <v>44227</v>
-      </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="Q1" s="70">
+        <v>44255</v>
+      </c>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
@@ -2172,31 +2172,31 @@
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:30" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72">
         <f>DATE(YEAR(A1),MONTH(A1),DAY(1))</f>
-        <v>44562</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+        <v>44593</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="72">
         <f>DATE(YEAR(C2),MONTH(C2)+1,DAY(C2)-1)</f>
-        <v>44592</v>
-      </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+        <v>44620</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="35"/>
       <c r="K2" s="37"/>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="72"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="38" t="s">
         <v>63</v>
       </c>
@@ -2205,10 +2205,10 @@
       <c r="Q2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="73"/>
+      <c r="S2" s="81"/>
       <c r="T2" s="40" t="s">
         <v>61</v>
       </c>
@@ -2225,10 +2225,10 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:30" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="42">
         <v>10</v>
       </c>
@@ -2272,30 +2272,30 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:30" ht="30">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="66"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -2329,46 +2329,46 @@
       <c r="V5" s="35"/>
     </row>
     <row r="6" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70" t="s">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70" t="s">
+      <c r="N6" s="61"/>
+      <c r="O6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="70" t="s">
+      <c r="P6" s="61"/>
+      <c r="Q6" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71" t="s">
+      <c r="R6" s="61"/>
+      <c r="S6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
@@ -2378,36 +2378,36 @@
       <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69" t="s">
+      <c r="J7" s="61"/>
+      <c r="K7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="16" t="s">
         <v>41</v>
       </c>
@@ -2434,34 +2434,68 @@
     <row r="8" spans="1:30" s="8" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="48">
         <f>C2</f>
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B8" s="49">
         <f>WEEKDAY(A8,1)</f>
-        <v>7</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="50">
+        <v>10</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="50">
+        <v>19</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="50">
+        <v>1</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="52">
+        <f>IF(E8&gt;0,QUOTIENT(Y8,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="34">
+        <f>IF(Y8&gt;0,MOD(Y8,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="52">
+        <f>IF(Y8&gt;0,IF(Y8-480&gt;0,QUOTIENT(Y8-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <f>IF(Y8&gt;0,IF(Y8-480&gt;0,MOD(Y8-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="52">
+        <f>IF(Y8&gt;0,IF(AA8&gt;0,QUOTIENT(AA8,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="34">
+        <f>IF(Y8&gt;0,IF(AA8&gt;0,MOD(AA8,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="68"/>
       <c r="W8" s="24">
         <f t="shared" ref="W8:W38" si="0">IF(C8="有給休暇AM",IF(((E8*基数分+F8)-午後始業時間分換算)&gt;0,(E8*基数分+F8)-午後始業時間分換算,0),IF(C8="",IF(((E8*基数分+F8)-午前始業時間分換算)&gt;0,(E8*基数分+F8)-午前始業時間分換算,0),0))</f>
         <v>0</v>
@@ -2472,7 +2506,7 @@
       </c>
       <c r="Y8" s="16">
         <f t="shared" ref="Y8:Y38" si="2">IF(E8&gt;0,((G8*基数分+H8)-(E8*基数分+F8)-((I8*基数分+J8)+(K8*基数分+L8))),0)</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z8" s="16">
         <f t="shared" ref="Z8:Z38" si="3">IF(E8&gt;0,IF((Y8-所定労働時間分換算)&gt;0,Y8-所定労働時間分換算,0),0)</f>
@@ -2494,34 +2528,68 @@
     <row r="9" spans="1:30" ht="20.25" customHeight="1">
       <c r="A9" s="48">
         <f>A8+1</f>
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B9" s="49">
         <f t="shared" ref="B9:B38" si="5">WEEKDAY(A9,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="50">
+        <v>10</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="50">
+        <v>19</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="50">
         <v>1</v>
       </c>
-      <c r="C9" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="76"/>
+      <c r="J9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="50">
+        <v>0</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="52">
+        <f>IF(E9&gt;0,QUOTIENT(Y9,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N9" s="34">
+        <f>IF(Y9&gt;0,MOD(Y9,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="52">
+        <f>IF(Y9&gt;0,IF(Y9-480&gt;0,QUOTIENT(Y9-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="34">
+        <f>IF(Y9&gt;0,IF(Y9-480&gt;0,MOD(Y9-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52">
+        <f>IF(Y9&gt;0,IF(AA9&gt;0,QUOTIENT(AA9,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="34">
+        <f>IF(Y9&gt;0,IF(AA9&gt;0,MOD(AA9,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="68"/>
       <c r="W9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2532,7 +2600,7 @@
       </c>
       <c r="Y9" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z9" s="16">
         <f t="shared" si="3"/>
@@ -2554,34 +2622,68 @@
     <row r="10" spans="1:30" ht="20.25" customHeight="1">
       <c r="A10" s="48">
         <f t="shared" ref="A10:A17" si="7">A9+1</f>
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="B10" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="50">
+        <v>10</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="50">
+        <v>19</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="50">
+        <v>1</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="50">
+        <v>0</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="52">
+        <f>IF(E10&gt;0,QUOTIENT(Y10,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N10" s="34">
+        <f>IF(Y10&gt;0,MOD(Y10,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="52">
+        <f>IF(Y10&gt;0,IF(Y10-480&gt;0,QUOTIENT(Y10-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="34">
+        <f>IF(Y10&gt;0,IF(Y10-480&gt;0,MOD(Y10-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="52">
+        <f>IF(Y10&gt;0,IF(AA10&gt;0,QUOTIENT(AA10,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="34">
+        <f>IF(Y10&gt;0,IF(AA10&gt;0,MOD(AA10,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="68"/>
       <c r="W10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2592,7 +2694,7 @@
       </c>
       <c r="Y10" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z10" s="16">
         <f t="shared" si="3"/>
@@ -2614,34 +2716,68 @@
     <row r="11" spans="1:30" ht="20.25" customHeight="1">
       <c r="A11" s="48">
         <f t="shared" si="7"/>
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="B11" s="49">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="76"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="50">
+        <v>10</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="50">
+        <v>19</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="50">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="50">
+        <v>0</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="52">
+        <f>IF(E11&gt;0,QUOTIENT(Y11,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N11" s="34">
+        <f>IF(Y11&gt;0,MOD(Y11,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="52">
+        <f>IF(Y11&gt;0,IF(Y11-480&gt;0,QUOTIENT(Y11-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="34">
+        <f>IF(Y11&gt;0,IF(Y11-480&gt;0,MOD(Y11-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="52">
+        <f>IF(Y11&gt;0,IF(AA11&gt;0,QUOTIENT(AA11,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="34">
+        <f>IF(Y11&gt;0,IF(AA11&gt;0,MOD(AA11,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="68"/>
       <c r="W11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2652,7 +2788,7 @@
       </c>
       <c r="Y11" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z11" s="16">
         <f t="shared" si="3"/>
@@ -2674,68 +2810,34 @@
     <row r="12" spans="1:30" ht="20.25" customHeight="1">
       <c r="A12" s="48">
         <f t="shared" si="7"/>
-        <v>44566</v>
+        <v>44597</v>
       </c>
       <c r="B12" s="49">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="50">
-        <v>10</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="50">
-        <v>19</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="50">
-        <v>1</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="50">
-        <v>0</v>
-      </c>
-      <c r="L12" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="52">
-        <f>IF(E12&gt;0,QUOTIENT(Y12,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N12" s="34">
-        <f>IF(Y12&gt;0,MOD(Y12,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="52">
-        <f>IF(Y12&gt;0,IF(Y12-480&gt;0,QUOTIENT(Y12-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="34">
-        <f>IF(Y12&gt;0,IF(Y12-480&gt;0,MOD(Y12-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="52">
-        <f>IF(Y12&gt;0,IF(AA12&gt;0,QUOTIENT(AA12,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="34">
-        <f>IF(Y12&gt;0,IF(AA12&gt;0,MOD(AA12,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="76"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="68"/>
       <c r="W12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2746,7 +2848,7 @@
       </c>
       <c r="Y12" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="16">
         <f t="shared" si="3"/>
@@ -2768,68 +2870,34 @@
     <row r="13" spans="1:30" ht="20.25" customHeight="1">
       <c r="A13" s="48">
         <f t="shared" si="7"/>
-        <v>44567</v>
+        <v>44598</v>
       </c>
       <c r="B13" s="49">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="50">
-        <v>10</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="50">
-        <v>19</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="50">
         <v>1</v>
       </c>
-      <c r="J13" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="50">
-        <v>0</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="52">
-        <f>IF(E13&gt;0,QUOTIENT(Y13,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N13" s="34">
-        <f>IF(Y13&gt;0,MOD(Y13,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="52">
-        <f>IF(Y13&gt;0,IF(Y13-480&gt;0,QUOTIENT(Y13-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="34">
-        <f>IF(Y13&gt;0,IF(Y13-480&gt;0,MOD(Y13-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="52">
-        <f>IF(Y13&gt;0,IF(AA13&gt;0,QUOTIENT(AA13,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="34">
-        <f>IF(Y13&gt;0,IF(AA13&gt;0,MOD(AA13,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="76"/>
+      <c r="C13" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="65"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="68"/>
       <c r="W13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2840,7 +2908,7 @@
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="16">
         <f t="shared" si="3"/>
@@ -2862,14 +2930,14 @@
     <row r="14" spans="1:30" ht="20.25" customHeight="1">
       <c r="A14" s="48">
         <f t="shared" si="7"/>
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="B14" s="49">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="50">
         <v>10</v>
       </c>
@@ -2918,12 +2986,12 @@
         <f>IF(Y14&gt;0,IF(AA14&gt;0,MOD(AA14,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S14" s="74" t="s">
+      <c r="S14" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="76"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="68"/>
       <c r="W14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2956,34 +3024,68 @@
     <row r="15" spans="1:30" ht="20.25" customHeight="1">
       <c r="A15" s="48">
         <f t="shared" si="7"/>
-        <v>44569</v>
+        <v>44600</v>
       </c>
       <c r="B15" s="49">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="50">
+        <v>10</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="50">
+        <v>19</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="50">
+        <v>1</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="50">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="52">
+        <f>IF(E15&gt;0,QUOTIENT(Y15,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N15" s="34">
+        <f>IF(Y15&gt;0,MOD(Y15,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="52">
+        <f>IF(Y15&gt;0,IF(Y15-480&gt;0,QUOTIENT(Y15-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <f>IF(Y15&gt;0,IF(Y15-480&gt;0,MOD(Y15-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="52">
+        <f>IF(Y15&gt;0,IF(AA15&gt;0,QUOTIENT(AA15,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="34">
+        <f>IF(Y15&gt;0,IF(AA15&gt;0,MOD(AA15,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="68"/>
       <c r="W15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2994,7 +3096,7 @@
       </c>
       <c r="Y15" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z15" s="16">
         <f t="shared" si="3"/>
@@ -3016,34 +3118,68 @@
     <row r="16" spans="1:30" ht="20.25" customHeight="1">
       <c r="A16" s="48">
         <f t="shared" si="7"/>
-        <v>44570</v>
+        <v>44601</v>
       </c>
       <c r="B16" s="49">
         <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="50">
+        <v>10</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="50">
+        <v>19</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="50">
         <v>1</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="76"/>
+      <c r="J16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="52">
+        <f>IF(E16&gt;0,QUOTIENT(Y16,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N16" s="34">
+        <f>IF(Y16&gt;0,MOD(Y16,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="52">
+        <f>IF(Y16&gt;0,IF(Y16-480&gt;0,QUOTIENT(Y16-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f>IF(Y16&gt;0,IF(Y16-480&gt;0,MOD(Y16-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="52">
+        <f>IF(Y16&gt;0,IF(AA16&gt;0,QUOTIENT(AA16,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="34">
+        <f>IF(Y16&gt;0,IF(AA16&gt;0,MOD(AA16,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="68"/>
       <c r="W16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3054,7 +3190,7 @@
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z16" s="16">
         <f t="shared" si="3"/>
@@ -3076,14 +3212,14 @@
     <row r="17" spans="1:30" ht="20.25" customHeight="1">
       <c r="A17" s="48">
         <f t="shared" si="7"/>
-        <v>44571</v>
+        <v>44602</v>
       </c>
       <c r="B17" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="50">
         <v>10</v>
       </c>
@@ -3132,12 +3268,12 @@
         <f>IF(Y17&gt;0,IF(AA17&gt;0,MOD(AA17,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S17" s="74" t="s">
+      <c r="S17" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="76"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="68"/>
       <c r="W17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3168,68 +3304,34 @@
     <row r="18" spans="1:30" ht="20.25" customHeight="1">
       <c r="A18" s="48">
         <f>A17+1</f>
-        <v>44572</v>
+        <v>44603</v>
       </c>
       <c r="B18" s="49">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="50">
-        <v>10</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="50">
-        <v>19</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="50">
-        <v>1</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="50">
-        <v>0</v>
-      </c>
-      <c r="L18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="52">
-        <f>IF(E18&gt;0,QUOTIENT(Y18,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N18" s="34">
-        <f>IF(Y18&gt;0,MOD(Y18,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="52">
-        <f>IF(Y18&gt;0,IF(Y18-480&gt;0,QUOTIENT(Y18-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="34">
-        <f>IF(Y18&gt;0,IF(Y18-480&gt;0,MOD(Y18-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="52">
-        <f>IF(Y18&gt;0,IF(AA18&gt;0,QUOTIENT(AA18,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="34">
-        <f>IF(Y18&gt;0,IF(AA18&gt;0,MOD(AA18,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="76"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="68"/>
       <c r="W18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3240,7 +3342,7 @@
       </c>
       <c r="Y18" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="16">
         <f t="shared" si="3"/>
@@ -3260,68 +3362,34 @@
     <row r="19" spans="1:30" ht="20.25" customHeight="1">
       <c r="A19" s="48">
         <f t="shared" ref="A19:A36" si="8">A18+1</f>
-        <v>44573</v>
+        <v>44604</v>
       </c>
       <c r="B19" s="49">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="50">
-        <v>10</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="50">
-        <v>19</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="50">
-        <v>1</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="50">
-        <v>0</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="52">
-        <f>IF(E19&gt;0,QUOTIENT(Y19,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N19" s="34">
-        <f>IF(Y19&gt;0,MOD(Y19,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="52">
-        <f>IF(Y19&gt;0,IF(Y19-480&gt;0,QUOTIENT(Y19-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="34">
-        <f>IF(Y19&gt;0,IF(Y19-480&gt;0,MOD(Y19-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="52">
-        <f>IF(Y19&gt;0,IF(AA19&gt;0,QUOTIENT(AA19,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="34">
-        <f>IF(Y19&gt;0,IF(AA19&gt;0,MOD(AA19,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="76"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="68"/>
       <c r="W19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3332,7 +3400,7 @@
       </c>
       <c r="Y19" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="16">
         <f t="shared" si="3"/>
@@ -3352,16 +3420,16 @@
     <row r="20" spans="1:30" ht="20.25" customHeight="1">
       <c r="A20" s="48">
         <f t="shared" si="8"/>
-        <v>44574</v>
+        <v>44605</v>
       </c>
       <c r="B20" s="49">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="78"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="65"/>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
       <c r="G20" s="50"/>
@@ -3376,10 +3444,10 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="34"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="76"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="68"/>
       <c r="W20" s="24">
         <f>IF(C20="有給休暇AM",IF(((E20*基数分+F20)-午後始業時間分換算)&gt;0,(E20*基数分+F20)-午後始業時間分換算,0),IF(C20="",IF(((E20*基数分+F20)-午前始業時間分換算)&gt;0,(E20*基数分+F20)-午前始業時間分換算,0),0))</f>
         <v>0</v>
@@ -3409,14 +3477,14 @@
     <row r="21" spans="1:30" ht="20.25" customHeight="1">
       <c r="A21" s="48">
         <f t="shared" si="8"/>
-        <v>44575</v>
+        <v>44606</v>
       </c>
       <c r="B21" s="49">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="50">
         <v>10</v>
       </c>
@@ -3465,12 +3533,12 @@
         <f>IF(Y21&gt;0,IF(AA21&gt;0,MOD(AA21,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S21" s="74" t="s">
+      <c r="S21" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="76"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="68"/>
       <c r="W21" s="24">
         <f>IF(C21="有給休暇AM",IF(((E21*基数分+F21)-午後始業時間分換算)&gt;0,(E21*基数分+F21)-午後始業時間分換算,0),IF(C21="",IF(((E21*基数分+F21)-午前始業時間分換算)&gt;0,(E21*基数分+F21)-午前始業時間分換算,0),0))</f>
         <v>0</v>
@@ -3500,34 +3568,68 @@
     <row r="22" spans="1:30" ht="20.25" customHeight="1">
       <c r="A22" s="48">
         <f t="shared" si="8"/>
-        <v>44576</v>
+        <v>44607</v>
       </c>
       <c r="B22" s="49">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="50">
+        <v>10</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50">
+        <v>19</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="50">
+        <v>1</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="50">
+        <v>0</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="52">
+        <f>IF(E22&gt;0,QUOTIENT(Y22,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N22" s="34">
+        <f>IF(Y22&gt;0,MOD(Y22,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="52">
+        <f>IF(Y22&gt;0,IF(Y22-480&gt;0,QUOTIENT(Y22-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f>IF(Y22&gt;0,IF(Y22-480&gt;0,MOD(Y22-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="52">
+        <f>IF(Y22&gt;0,IF(AA22&gt;0,QUOTIENT(AA22,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="34">
+        <f>IF(Y22&gt;0,IF(AA22&gt;0,MOD(AA22,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="68"/>
       <c r="W22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3538,7 +3640,7 @@
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z22" s="16">
         <f t="shared" si="3"/>
@@ -3557,34 +3659,68 @@
     <row r="23" spans="1:30" ht="20.25" customHeight="1">
       <c r="A23" s="48">
         <f t="shared" si="8"/>
-        <v>44577</v>
+        <v>44608</v>
       </c>
       <c r="B23" s="49">
         <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="50">
+        <v>10</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="50">
+        <v>19</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="50">
         <v>1</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="76"/>
+      <c r="J23" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="50">
+        <v>0</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="52">
+        <f>IF(E23&gt;0,QUOTIENT(Y23,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N23" s="34">
+        <f>IF(Y23&gt;0,MOD(Y23,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="52">
+        <f>IF(Y23&gt;0,IF(Y23-480&gt;0,QUOTIENT(Y23-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f>IF(Y23&gt;0,IF(Y23-480&gt;0,MOD(Y23-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="52">
+        <f>IF(Y23&gt;0,IF(AA23&gt;0,QUOTIENT(AA23,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="34">
+        <f>IF(Y23&gt;0,IF(AA23&gt;0,MOD(AA23,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="68"/>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3595,7 +3731,7 @@
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z23" s="16">
         <f t="shared" si="3"/>
@@ -3614,14 +3750,14 @@
     <row r="24" spans="1:30" ht="20.25" customHeight="1">
       <c r="A24" s="48">
         <f t="shared" si="8"/>
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="B24" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="50">
         <v>10</v>
       </c>
@@ -3670,12 +3806,12 @@
         <f>IF(Y24&gt;0,IF(AA24&gt;0,MOD(AA24,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S24" s="74" t="s">
+      <c r="S24" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="76"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="68"/>
       <c r="W24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3705,14 +3841,14 @@
     <row r="25" spans="1:30" ht="20.25" customHeight="1">
       <c r="A25" s="48">
         <f t="shared" si="8"/>
-        <v>44579</v>
+        <v>44610</v>
       </c>
       <c r="B25" s="49">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="50">
         <v>10</v>
       </c>
@@ -3761,12 +3897,12 @@
         <f>IF(Y25&gt;0,IF(AA25&gt;0,MOD(AA25,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S25" s="74" t="s">
+      <c r="S25" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="76"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="68"/>
       <c r="W25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3796,68 +3932,34 @@
     <row r="26" spans="1:30" ht="20.25" customHeight="1">
       <c r="A26" s="48">
         <f t="shared" si="8"/>
-        <v>44580</v>
+        <v>44611</v>
       </c>
       <c r="B26" s="49">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="50">
-        <v>10</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="50">
-        <v>19</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="50">
-        <v>1</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="50">
-        <v>0</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="52">
-        <f>IF(E26&gt;0,QUOTIENT(Y26,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N26" s="34">
-        <f>IF(Y26&gt;0,MOD(Y26,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="52">
-        <f>IF(Y26&gt;0,IF(Y26-480&gt;0,QUOTIENT(Y26-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="34">
-        <f>IF(Y26&gt;0,IF(Y26-480&gt;0,MOD(Y26-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="52">
-        <f>IF(Y26&gt;0,IF(AA26&gt;0,QUOTIENT(AA26,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="34">
-        <f>IF(Y26&gt;0,IF(AA26&gt;0,MOD(AA26,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="76"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="68"/>
       <c r="W26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3868,7 +3970,7 @@
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="16">
         <f t="shared" si="3"/>
@@ -3887,68 +3989,34 @@
     <row r="27" spans="1:30" ht="20.25" customHeight="1">
       <c r="A27" s="48">
         <f t="shared" si="8"/>
-        <v>44581</v>
+        <v>44612</v>
       </c>
       <c r="B27" s="49">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="50">
-        <v>10</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="50">
-        <v>19</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="50">
         <v>1</v>
       </c>
-      <c r="J27" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="50">
-        <v>0</v>
-      </c>
-      <c r="L27" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="52">
-        <f>IF(E27&gt;0,QUOTIENT(Y27,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N27" s="34">
-        <f>IF(Y27&gt;0,MOD(Y27,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="52">
-        <f>IF(Y27&gt;0,IF(Y27-480&gt;0,QUOTIENT(Y27-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="34">
-        <f>IF(Y27&gt;0,IF(Y27-480&gt;0,MOD(Y27-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="52">
-        <f>IF(Y27&gt;0,IF(AA27&gt;0,QUOTIENT(AA27,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="34">
-        <f>IF(Y27&gt;0,IF(AA27&gt;0,MOD(AA27,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="76"/>
+      <c r="C27" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="68"/>
       <c r="W27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3959,7 +4027,7 @@
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="16">
         <f t="shared" si="3"/>
@@ -3978,14 +4046,14 @@
     <row r="28" spans="1:30" ht="20.25" customHeight="1">
       <c r="A28" s="48">
         <f t="shared" si="8"/>
-        <v>44582</v>
+        <v>44613</v>
       </c>
       <c r="B28" s="49">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="50">
         <v>10</v>
       </c>
@@ -4034,12 +4102,12 @@
         <f>IF(Y28&gt;0,IF(AA28&gt;0,MOD(AA28,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S28" s="74" t="s">
+      <c r="S28" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="76"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="68"/>
       <c r="W28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4069,34 +4137,68 @@
     <row r="29" spans="1:30" ht="20.25" customHeight="1">
       <c r="A29" s="48">
         <f t="shared" si="8"/>
-        <v>44583</v>
+        <v>44614</v>
       </c>
       <c r="B29" s="49">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="50">
+        <v>10</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="50">
+        <v>19</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="50">
+        <v>1</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="52">
+        <f>IF(E29&gt;0,QUOTIENT(Y29,60),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N29" s="34">
+        <f>IF(Y29&gt;0,MOD(Y29,60),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="52">
+        <f>IF(Y29&gt;0,IF(Y29-480&gt;0,QUOTIENT(Y29-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f>IF(Y29&gt;0,IF(Y29-480&gt;0,MOD(Y29-480,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="52">
+        <f>IF(Y29&gt;0,IF(AA29&gt;0,QUOTIENT(AA29,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="34">
+        <f>IF(Y29&gt;0,IF(AA29&gt;0,MOD(AA29,60),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="68"/>
       <c r="W29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4107,7 +4209,7 @@
       </c>
       <c r="Y29" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" si="3"/>
@@ -4126,16 +4228,16 @@
     <row r="30" spans="1:30" ht="20.25" customHeight="1">
       <c r="A30" s="48">
         <f t="shared" si="8"/>
-        <v>44584</v>
+        <v>44615</v>
       </c>
       <c r="B30" s="49">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="78"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="65"/>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
       <c r="G30" s="50"/>
@@ -4150,10 +4252,10 @@
       <c r="P30" s="34"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="34"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="76"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="68"/>
       <c r="W30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4183,14 +4285,14 @@
     <row r="31" spans="1:30" ht="20.25" customHeight="1">
       <c r="A31" s="48">
         <f t="shared" si="8"/>
-        <v>44585</v>
+        <v>44616</v>
       </c>
       <c r="B31" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="50">
         <v>10</v>
       </c>
@@ -4239,12 +4341,12 @@
         <f>IF(Y31&gt;0,IF(AA31&gt;0,MOD(AA31,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S31" s="74" t="s">
+      <c r="S31" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="76"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="68"/>
       <c r="W31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4274,14 +4376,14 @@
     <row r="32" spans="1:30" ht="20.25" customHeight="1">
       <c r="A32" s="48">
         <f t="shared" si="8"/>
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="B32" s="49">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="50">
         <v>10</v>
       </c>
@@ -4330,12 +4432,12 @@
         <f>IF(Y32&gt;0,IF(AA32&gt;0,MOD(AA32,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S32" s="74" t="s">
+      <c r="S32" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="76"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="68"/>
       <c r="W32" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4365,68 +4467,34 @@
     <row r="33" spans="1:29" ht="20.25" customHeight="1">
       <c r="A33" s="48">
         <f t="shared" si="8"/>
-        <v>44587</v>
+        <v>44618</v>
       </c>
       <c r="B33" s="49">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="50">
-        <v>10</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="50">
-        <v>19</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="50">
-        <v>1</v>
-      </c>
-      <c r="J33" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="50">
-        <v>0</v>
-      </c>
-      <c r="L33" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="52">
-        <f>IF(E33&gt;0,QUOTIENT(Y33,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N33" s="34">
-        <f>IF(Y33&gt;0,MOD(Y33,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="52">
-        <f>IF(Y33&gt;0,IF(Y33-480&gt;0,QUOTIENT(Y33-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="34">
-        <f>IF(Y33&gt;0,IF(Y33-480&gt;0,MOD(Y33-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="52">
-        <f>IF(Y33&gt;0,IF(AA33&gt;0,QUOTIENT(AA33,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="34">
-        <f>IF(Y33&gt;0,IF(AA33&gt;0,MOD(AA33,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="76"/>
+        <v>7</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="68"/>
       <c r="W33" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4437,7 +4505,7 @@
       </c>
       <c r="Y33" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="16">
         <f t="shared" si="3"/>
@@ -4456,68 +4524,34 @@
     <row r="34" spans="1:29" ht="20.25" customHeight="1">
       <c r="A34" s="48">
         <f t="shared" si="8"/>
-        <v>44588</v>
+        <v>44619</v>
       </c>
       <c r="B34" s="49">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="50">
-        <v>10</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="50">
-        <v>19</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="50">
         <v>1</v>
       </c>
-      <c r="J34" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="50">
-        <v>0</v>
-      </c>
-      <c r="L34" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="52">
-        <f>IF(E34&gt;0,QUOTIENT(Y34,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N34" s="34">
-        <f>IF(Y34&gt;0,MOD(Y34,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="52">
-        <f>IF(Y34&gt;0,IF(Y34-480&gt;0,QUOTIENT(Y34-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="34">
-        <f>IF(Y34&gt;0,IF(Y34-480&gt;0,MOD(Y34-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="52">
-        <f>IF(Y34&gt;0,IF(AA34&gt;0,QUOTIENT(AA34,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="34">
-        <f>IF(Y34&gt;0,IF(AA34&gt;0,MOD(AA34,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="76"/>
+      <c r="C34" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="68"/>
       <c r="W34" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4528,7 +4562,7 @@
       </c>
       <c r="Y34" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="16">
         <f t="shared" si="3"/>
@@ -4547,14 +4581,14 @@
     <row r="35" spans="1:29" ht="20.25" customHeight="1">
       <c r="A35" s="48">
         <f t="shared" si="8"/>
-        <v>44589</v>
+        <v>44620</v>
       </c>
       <c r="B35" s="49">
         <f>WEEKDAY(A35,1)</f>
-        <v>6</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="50">
         <v>10</v>
       </c>
@@ -4603,12 +4637,12 @@
         <f>IF(Y35&gt;0,IF(AA35&gt;0,MOD(AA35,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S35" s="74" t="s">
+      <c r="S35" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="76"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="68"/>
       <c r="W35" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4638,16 +4672,14 @@
     <row r="36" spans="1:29" ht="20.25" customHeight="1">
       <c r="A36" s="48">
         <f t="shared" si="8"/>
-        <v>44590</v>
+        <v>44621</v>
       </c>
       <c r="B36" s="49">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="50"/>
       <c r="F36" s="51"/>
       <c r="G36" s="50"/>
@@ -4662,10 +4694,10 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="52"/>
       <c r="R36" s="34"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="76"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="68"/>
       <c r="W36" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4695,16 +4727,14 @@
     <row r="37" spans="1:29" ht="20.25" customHeight="1">
       <c r="A37" s="48">
         <f>A36+1</f>
-        <v>44591</v>
+        <v>44622</v>
       </c>
       <c r="B37" s="49">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C37" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="78"/>
+        <v>4</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="50"/>
       <c r="F37" s="51"/>
       <c r="G37" s="50"/>
@@ -4719,10 +4749,10 @@
       <c r="P37" s="34"/>
       <c r="Q37" s="52"/>
       <c r="R37" s="34"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="76"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="68"/>
       <c r="W37" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4752,68 +4782,32 @@
     <row r="38" spans="1:29" ht="20.25" customHeight="1">
       <c r="A38" s="48">
         <f>A37+1</f>
-        <v>44592</v>
+        <v>44623</v>
       </c>
       <c r="B38" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="50">
-        <v>10</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="50">
-        <v>19</v>
-      </c>
-      <c r="H38" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="50">
-        <v>1</v>
-      </c>
-      <c r="J38" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="50">
-        <v>0</v>
-      </c>
-      <c r="L38" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="52">
-        <f>IF(E38&gt;0,QUOTIENT(Y38,60),"")</f>
-        <v>8</v>
-      </c>
-      <c r="N38" s="34">
-        <f>IF(Y38&gt;0,MOD(Y38,60),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="52">
-        <f>IF(Y38&gt;0,IF(Y38-480&gt;0,QUOTIENT(Y38-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="34">
-        <f>IF(Y38&gt;0,IF(Y38-480&gt;0,MOD(Y38-480,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="52">
-        <f>IF(Y38&gt;0,IF(AA38&gt;0,QUOTIENT(AA38,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="34">
-        <f>IF(Y38&gt;0,IF(AA38&gt;0,MOD(AA38,60),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="76"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="68"/>
       <c r="W38" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4824,7 +4818,7 @@
       </c>
       <c r="Y38" s="16">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="16">
         <f t="shared" si="3"/>
@@ -4896,16 +4890,16 @@
       <c r="V40" s="58"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69" t="s">
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
@@ -4924,18 +4918,18 @@
       <c r="V41" s="58"/>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="81">
+      <c r="A42" s="62">
         <f>COUNT(A8:A38)-(COUNTIF(C8:C38,"休日")+COUNTIF(C8:C38,"祝日")+COUNTIF(C8:C38,"振替休日"))</f>
-        <v>19</v>
-      </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80">
+        <v>21</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60">
         <f>COUNTIF(C8:C38,"")+COUNTIF(C8:C38,"有給休暇*")</f>
-        <v>18</v>
-      </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
+        <v>21</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="58"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
@@ -4954,111 +4948,111 @@
       <c r="V42" s="58"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69" t="s">
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69" t="s">
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69" t="s">
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69" t="s">
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
       <c r="S43" s="58"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="80">
+      <c r="A44" s="60">
         <f>COUNTIF(W8:W38,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60">
         <f>COUNTIF(X8:X38,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80">
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60">
         <f>COUNTIF(C8:C38,"有給休暇")+COUNTIF(C8:C38,"有給休暇*")/2</f>
         <v>0</v>
       </c>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80">
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60">
         <f>COUNTIF(C8:C38,"振替休日")</f>
         <v>0</v>
       </c>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80">
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60">
         <f>COUNTIF(C8:C38,"代替休暇")</f>
         <v>0</v>
       </c>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80">
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60">
         <f>COUNTIF(C8:C38,"欠勤")</f>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
       <c r="S44" s="58"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
       <c r="V44" s="58"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69" t="s">
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69" t="s">
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69" t="s">
+      <c r="K45" s="61"/>
+      <c r="L45" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="69" t="s">
+      <c r="M45" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
       <c r="P45" s="58"/>
       <c r="Q45" s="58"/>
       <c r="R45" s="58"/>
@@ -5068,36 +5062,36 @@
       <c r="V45" s="58"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="79">
+      <c r="A46" s="63">
         <f>A42*所定労働時間分換算/基数分</f>
-        <v>152</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79">
+        <v>168</v>
+      </c>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63">
         <f>(SUM(Y8:Y38)/基数分)</f>
         <v>144</v>
       </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79">
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63">
         <f>(SUM(Z8:Z38)/基数分)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79">
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63">
         <f>(SUM(AA8:AA38)/基数分)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79">
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63">
         <f>(SUM(AB8:AB38)/基数分)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
       <c r="P46" s="58"/>
       <c r="Q46" s="58"/>
       <c r="R46" s="58"/>
@@ -5180,98 +5174,6 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="A2:B2"/>
@@ -5290,6 +5192,98 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -5302,10 +5296,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D38" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$AD$8:$AD$16</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K38 G8:G38 E8:E38 I8:I38" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G38 E8:E38 I8:I38 K8:K38" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>AND(ISNUMBER(VALUE(E8)), (VALUE(E8) &gt;= 0), (VALUE(E8) &lt;= 40))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L38 H8:H38 F8:F38 J8:J38" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H38 F8:F38 J8:J38 L8:L38" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>AND(ISNUMBER(VALUE(F8)), (VALUE(F8) &gt;= 0), (VALUE(F8) &lt;= 59))</formula1>
     </dataValidation>
   </dataValidations>
@@ -5340,13 +5334,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="82">
+      <c r="A1" s="91">
         <v>43221</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="1"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5360,12 +5354,12 @@
       <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
@@ -5375,25 +5369,25 @@
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:30" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72">
         <f>DATE(YEAR(A1),MONTH(A1),DAY(1))</f>
         <v>43221</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="72">
         <f>DATE(YEAR(C2),MONTH(C2)+1,DAY(C2)-1)</f>
         <v>43251</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -5403,11 +5397,11 @@
       <c r="P2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
       <c r="V2" s="9" t="s">
         <v>4</v>
       </c>
@@ -5451,30 +5445,30 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:30" ht="30">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -5508,46 +5502,46 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="89" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="89" t="s">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="88"/>
-      <c r="S6" s="90" t="s">
+      <c r="R6" s="84"/>
+      <c r="S6" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
@@ -5557,36 +5551,36 @@
       <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88" t="s">
+      <c r="J7" s="84"/>
+      <c r="K7" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="16" t="s">
         <v>41</v>
       </c>
@@ -5619,8 +5613,8 @@
         <f>WEEKDAY(A8,1)</f>
         <v>3</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="20">
         <v>9</v>
       </c>
@@ -5669,10 +5663,10 @@
         <f>IF(Y8&gt;0,IF(AA8&gt;0,MOD(AA8,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="95"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="90"/>
       <c r="W8" s="24">
         <f t="shared" ref="W8:W38" si="0">IF(C8="有給休暇AM",IF(((E8*基数分+F8)-午後始業時間分換算)&gt;0,(E8*基数分+F8)-午後始業時間分換算,0),IF(C8="",IF(((E8*基数分+F8)-午前始業時間分換算)&gt;0,(E8*基数分+F8)-午前始業時間分換算,0),0))</f>
         <v>0</v>
@@ -5711,8 +5705,8 @@
         <f t="shared" ref="B9:B35" si="5">WEEKDAY(A9,1)</f>
         <v>4</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="20">
         <v>10</v>
       </c>
@@ -5761,12 +5755,12 @@
         <f t="shared" ref="R9:R38" si="11">IF(Y9&gt;0,IF(AA9&gt;0,MOD(AA9,60),0),"")</f>
         <v>0</v>
       </c>
-      <c r="S9" s="93" t="s">
+      <c r="S9" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="95"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="90"/>
       <c r="W9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5805,8 +5799,8 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="20">
         <v>9</v>
       </c>
@@ -5855,12 +5849,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S10" s="93" t="s">
+      <c r="S10" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="95"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="90"/>
       <c r="W10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5899,8 +5893,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="20">
         <v>3</v>
       </c>
@@ -5949,12 +5943,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S11" s="93" t="s">
+      <c r="S11" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="95"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5993,10 +5987,10 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="20"/>
@@ -6029,10 +6023,10 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S12" s="93"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="95"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="90"/>
       <c r="W12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6071,10 +6065,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="20">
         <v>10</v>
       </c>
@@ -6123,10 +6117,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S13" s="93"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="95"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="90"/>
       <c r="W13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6165,8 +6159,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="20">
         <v>9</v>
       </c>
@@ -6215,10 +6209,10 @@
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="S14" s="93"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="95"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="90"/>
       <c r="W14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6257,10 +6251,10 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="20">
         <v>13</v>
       </c>
@@ -6309,10 +6303,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S15" s="93"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="95"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="90"/>
       <c r="W15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6351,8 +6345,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="20">
         <v>9</v>
       </c>
@@ -6401,10 +6395,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S16" s="93"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="95"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6443,10 +6437,10 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
       <c r="G17" s="20"/>
@@ -6479,12 +6473,12 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S17" s="93" t="s">
+      <c r="S17" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="95"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="90"/>
       <c r="W17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6521,8 +6515,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="20">
         <v>9</v>
       </c>
@@ -6571,10 +6565,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="95"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="90"/>
       <c r="W18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6611,8 +6605,8 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="20">
         <v>9</v>
       </c>
@@ -6661,10 +6655,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="95"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="90"/>
       <c r="W19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6701,10 +6695,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="92"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
@@ -6737,10 +6731,10 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="95"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="90"/>
       <c r="W20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6776,8 +6770,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="20">
         <v>9</v>
       </c>
@@ -6826,12 +6820,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S21" s="93" t="s">
+      <c r="S21" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="95"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="90"/>
       <c r="W21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6867,10 +6861,10 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="92"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="20">
         <v>9</v>
       </c>
@@ -6919,10 +6913,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S22" s="93"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="95"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="90"/>
       <c r="W22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6958,8 +6952,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="20">
         <v>9</v>
       </c>
@@ -7008,10 +7002,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S23" s="93"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="95"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="90"/>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7047,10 +7041,10 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="92"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
       <c r="G24" s="20"/>
@@ -7083,12 +7077,12 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S24" s="93" t="s">
+      <c r="S24" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="95"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="90"/>
       <c r="W24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7124,8 +7118,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="20">
         <v>9</v>
       </c>
@@ -7174,10 +7168,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S25" s="93"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="95"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="90"/>
       <c r="W25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7213,10 +7207,10 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="92"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
       <c r="G26" s="20"/>
@@ -7249,10 +7243,10 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="95"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="90"/>
       <c r="W26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7288,10 +7282,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="92"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
       <c r="G27" s="20"/>
@@ -7324,10 +7318,10 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S27" s="93"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="95"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="90"/>
       <c r="W27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7363,8 +7357,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="20">
         <v>9</v>
       </c>
@@ -7413,10 +7407,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S28" s="93"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="95"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="90"/>
       <c r="W28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7452,8 +7446,8 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="20">
         <v>9</v>
       </c>
@@ -7502,10 +7496,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S29" s="93"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="95"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="90"/>
       <c r="W29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7541,10 +7535,10 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="92"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
       <c r="G30" s="20"/>
@@ -7577,10 +7571,10 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S30" s="93"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="95"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="90"/>
       <c r="W30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7616,8 +7610,8 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="20">
         <v>9</v>
       </c>
@@ -7666,10 +7660,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S31" s="93"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="95"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="90"/>
       <c r="W31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7705,8 +7699,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="20">
         <v>9</v>
       </c>
@@ -7755,10 +7749,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S32" s="93"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="95"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="90"/>
       <c r="W32" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7794,10 +7788,10 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="92"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="20">
         <v>11</v>
       </c>
@@ -7846,10 +7840,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S33" s="93"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="95"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="90"/>
       <c r="W33" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7885,10 +7879,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="92"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="20"/>
@@ -7921,10 +7915,10 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S34" s="93"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="95"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="90"/>
       <c r="W34" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7960,8 +7954,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="20">
         <v>9</v>
       </c>
@@ -8010,10 +8004,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S35" s="93"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="95"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="90"/>
       <c r="W35" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8049,8 +8043,8 @@
         <f>IF(A36="","",WEEKDAY(A36,1))</f>
         <v>3</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="20">
         <v>9</v>
       </c>
@@ -8099,10 +8093,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S36" s="93"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="95"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="90"/>
       <c r="W36" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8138,8 +8132,8 @@
         <f>IF(A37="","",WEEKDAY(A37,1))</f>
         <v>4</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="20">
         <v>9</v>
       </c>
@@ -8188,10 +8182,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S37" s="93"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="95"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="90"/>
       <c r="W37" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8227,8 +8221,8 @@
         <f>IF(A38="","",WEEKDAY(A38,1))</f>
         <v>5</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="20">
         <v>9</v>
       </c>
@@ -8277,10 +8271,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S38" s="93"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="95"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="90"/>
       <c r="W38" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8363,16 +8357,16 @@
       <c r="V40" s="32"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88" t="s">
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8391,18 +8385,18 @@
       <c r="V41" s="32"/>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="97">
+      <c r="A42" s="85">
         <f>COUNT(A8:A38)-(COUNTIF(C8:C38,"休日")+COUNTIF(C8:C38,"祝日")+COUNTIF(C8:C38,"振替休日"))</f>
         <v>23</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96">
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83">
         <f>COUNTIF(C8:C38,"")+COUNTIF(C8:C38,"有給休暇*")</f>
         <v>21</v>
       </c>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -8421,111 +8415,111 @@
       <c r="V42" s="32"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88" t="s">
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88" t="s">
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88" t="s">
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88" t="s">
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88" t="s">
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
       <c r="V43" s="32"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="96">
+      <c r="A44" s="83">
         <f>COUNTIF(W8:W38,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96">
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83">
         <f>COUNTIF(X8:X38,"&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96">
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83">
         <f>COUNTIF(C8:C38,"有給休暇")+COUNTIF(C8:C38,"有給休暇*")/2</f>
         <v>1</v>
       </c>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96">
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83">
         <f>COUNTIF(C8:C38,"振替休日")</f>
         <v>1</v>
       </c>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96">
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83">
         <f>COUNTIF(C8:C38,"代替休暇")</f>
         <v>1</v>
       </c>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96">
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83">
         <f>COUNTIF(C8:C38,"欠勤")</f>
         <v>1</v>
       </c>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
       <c r="V44" s="32"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88" t="s">
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88" t="s">
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88" t="s">
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88" t="s">
+      <c r="K45" s="84"/>
+      <c r="L45" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="88" t="s">
+      <c r="M45" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="32"/>
@@ -8535,36 +8529,36 @@
       <c r="V45" s="32"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="98">
+      <c r="A46" s="82">
         <f>A42*所定労働時間分換算/基数分</f>
         <v>184</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98">
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82">
         <f>(SUM(Y8:Y38)/基数分)</f>
         <v>189.25</v>
       </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82">
         <f>(SUM(Z8:Z38)/基数分)</f>
         <v>21.25</v>
       </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98">
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82">
         <f>(SUM(AA8:AA38)/基数分)</f>
         <v>7.25</v>
       </c>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98">
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82">
         <f>(SUM(AB8:AB38)/基数分)</f>
         <v>10.5</v>
       </c>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
@@ -8648,98 +8642,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="108">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="S8:V8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="A2:B2"/>
@@ -8756,6 +8658,98 @@
     <mergeCell ref="O6:P7"/>
     <mergeCell ref="Q6:R7"/>
     <mergeCell ref="S6:V7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
